--- a/xlsx/工具书_intext.xlsx
+++ b/xlsx/工具书_intext.xlsx
@@ -29,7 +29,7 @@
     <t>学习</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_工具书</t>
+    <t>政策_政策_维基百科_工具书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%80%83%E6%9B%B8</t>
   </si>
   <si>
-    <t>參考書</t>
+    <t>参考书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B4%E9%91%91</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9C%96%E9%9B%86</t>
   </si>
   <si>
-    <t>地圖集</t>
+    <t>地图集</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Atlas</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>辭典</t>
+    <t>辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%BC%95%E5%85%B8</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%AB%E5%85%B8</t>
   </si>
   <si>
-    <t>畫典</t>
+    <t>画典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E7%A7%91%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>百科全書</t>
+    <t>百科全书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Encyclopedia</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9E%E6%9B%B8</t>
   </si>
   <si>
-    <t>類書</t>
+    <t>类书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Book_by_category</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E9%8C%84</t>
   </si>
   <si>
-    <t>目錄</t>
+    <t>目录</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Catalog</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%A8%98</t>
   </si>
   <si>
-    <t>傳記</t>
+    <t>传记</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biography</t>
@@ -227,25 +227,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E7%A9%BA%E4%B8%AD%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國立空中大學</t>
+    <t>国立空中大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B85%E5%B9%B4</t>
   </si>
   <si>
-    <t>民國85年</t>
+    <t>民国85年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B92%E5%B9%B4</t>
   </si>
   <si>
-    <t>民國92年</t>
+    <t>民国92年</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
